--- a/数据整理/stocks/港股/03888-金山软件.xlsx
+++ b/数据整理/stocks/港股/03888-金山软件.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3975,4 +3976,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8689</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8689</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5949</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5283</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03888-金山软件.xlsx
+++ b/数据整理/stocks/港股/03888-金山软件.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4260,4 +4261,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03888-金山软件.xlsx
+++ b/数据整理/stocks/港股/03888-金山软件.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4269,7 +4270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4280,17 +4281,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4300,14 +4321,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5323</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.87</v>
       </c>
     </row>
     <row r="3">
@@ -4316,14 +4359,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>44</v>
-      </c>
-      <c r="D3" t="n">
-        <v>52.41</v>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4791</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4332,13 +4397,439 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1988</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9404</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5928</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>52.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>46</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>32.32</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03888-金山软件.xlsx
+++ b/数据整理/stocks/港股/03888-金山软件.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4744,7 +4745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4755,17 +4756,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4775,14 +4796,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.81</v>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4791,14 +4834,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.87</v>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6572</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4807,14 +4872,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>44</v>
-      </c>
-      <c r="D4" t="n">
-        <v>52.41</v>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4823,13 +4910,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>46</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>32.32</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03888-金山软件.xlsx
+++ b/数据整理/stocks/港股/03888-金山软件.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5143,7 +5144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5154,17 +5155,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5174,14 +5195,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.29</v>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5190,14 +5233,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.81</v>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5206,14 +5271,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.87</v>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5258</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5222,14 +5309,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>44</v>
-      </c>
-      <c r="D5" t="n">
-        <v>52.41</v>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -5238,13 +5347,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>52.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>46</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>32.32</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03888-金山软件.xlsx
+++ b/数据整理/stocks/港股/03888-金山软件.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>3.26</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.29</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>12.81</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>2.87</v>
+        <v>12.81</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>52.41</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>44</v>
+      </c>
+      <c r="D7" t="n">
+        <v>52.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>46</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>32.32</v>
       </c>
     </row>
@@ -583,6 +600,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>204.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8736</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7322</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6877</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4392</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3284</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013369</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013370</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159738</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159793</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>517770</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深游戏及文化传媒ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>517280</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1132,7 +1927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1530,7 +2325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2004,7 +2799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2288,7 +3083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4016,7 +4811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/03888-金山软件.xlsx
+++ b/数据整理/stocks/港股/03888-金山软件.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>8.119999999999999</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>3.26</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>2.29</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>12.81</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>2.87</v>
+        <v>12.81</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>52.41</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>44</v>
+      </c>
+      <c r="D8" t="n">
+        <v>52.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>46</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>32.32</v>
       </c>
     </row>
@@ -600,6 +617,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>246.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0791</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8862</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4870</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4687</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011924</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015412</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得数字产业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011925</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016570</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实价值丰润混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015413</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得数字产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>105.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159738</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>517770</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深游戏及文化传媒ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159793</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>517280</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>016571</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实价值丰润混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1377,7 +2324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1927,7 +2874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2325,7 +3272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2799,7 +3746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3083,7 +4030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4811,7 +5758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
